--- a/output/ia_closure_summary.xlsx
+++ b/output/ia_closure_summary.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -740,22 +740,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>4787</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>New Hampton</t>
+          <t>North Winneshiek</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Education Options</t>
+          <t>North Winneshiek Middle School</t>
         </is>
       </c>
     </row>
@@ -770,52 +770,62 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4787</t>
+          <t>6961</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>North Winneshiek</t>
+          <t>Western Dubuque</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>454</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>North Winneshiek Middle School</t>
+          <t>Bernard Elementary</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2017-2018</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6961</t>
+          <t>0135</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Western Dubuque</t>
+          <t>Allamakee</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>418</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bernard Elementary</t>
+          <t>Waterville Elementary School</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>PK - 05</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Students and staff will attend West Elem and East Elem</t>
         </is>
       </c>
     </row>
@@ -830,32 +840,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0135</t>
+          <t>0916</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Allamakee</t>
+          <t>CAL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Waterville Elementary School</t>
+          <t>CAL Community High School</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PK - 05</t>
+          <t>06 - 12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Students and staff will attend West Elem and East Elem</t>
+          <t>WGS 7-12 with Hampton Dumont</t>
         </is>
       </c>
     </row>
@@ -870,32 +880,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0423</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Aurelia</t>
+          <t>Central City</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>418</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Aurelia Middle School</t>
+          <t>Central City Middle School</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05 - 08</t>
+          <t>09 - 08</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Re-org</t>
+          <t>Merging with high school</t>
         </is>
       </c>
     </row>
@@ -910,32 +920,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0423</t>
+          <t>1737</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Aurelia</t>
+          <t>Des Moines Independent</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>850</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Aurelia Elementary School</t>
+          <t>Smouse Opp School</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PK - 04</t>
+          <t>PK - 08</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Re-org</t>
+          <t>Some students will be attending Ruby Van Meter, and some will be sent to their neighborhood schools'</t>
         </is>
       </c>
     </row>
@@ -950,32 +960,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0504</t>
+          <t>1737</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Battle Creek-Ida Grove</t>
+          <t>Des Moines Independent</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>988</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Battle Creek Ida Grove Sr High</t>
+          <t>Ruby Van Meter School</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09 - 12</t>
+          <t>06 - 12</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Re-org</t>
+          <t>Some students will be attending Ruby Van Meter, and some will be sent to their neighborhood schools'</t>
         </is>
       </c>
     </row>
@@ -990,32 +1000,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0504</t>
+          <t>2151</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Battle Creek-Ida Grove</t>
+          <t>Exira-Elk Horn-Kimballton</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>209</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BCIG Elementary School</t>
+          <t>Exira/EHK Middle School</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PK - 05</t>
+          <t>PK, KG, 04 - 08</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Re-org</t>
+          <t>Moving grades 6-8 into high school</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1040,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0729</t>
+          <t>2403</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Boone</t>
+          <t>Garner-Hayfield-Ventura</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>427</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Futures</t>
+          <t>Garner Hayfield Ventura Intermediate School</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10 - 12</t>
+          <t>05 - 06</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Alt program incorporated into high school</t>
+          <t>Students moved to 7-8 building, staff will be moved to either high school or other GHV building</t>
         </is>
       </c>
     </row>
@@ -1070,32 +1080,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0916</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CAL</t>
+          <t>Nashua-Plainfield</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>427</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CAL Community High School</t>
+          <t>Nashua Plainfield Intermediate</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06 - 12</t>
+          <t>04 - 06</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>WGS 7-12 with Hampton Dumont</t>
+          <t>The school board voted on 4/30/18 to close our Plainfield building and to move those grades into the JH/HS and Elem. buildings located in Nashua for the 2018-2019 school year.'</t>
         </is>
       </c>
     </row>
@@ -1110,427 +1120,377 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>4869</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Central City</t>
+          <t>Oelwein</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>436</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Central City Middle School</t>
+          <t>Parkside Elementary School</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09 - 08</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Merging with high school</t>
+          <t>Students and Staff going to Wings Park Elem</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>0621</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Des Moines Independent</t>
+          <t>Bettendorf</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>0418</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Smouse Opp School</t>
+          <t>Thomas Jefferson Elementary</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PK - 08</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Some students will be attending Ruby Van Meter, and some will be sent to their neighborhood schools'</t>
+          <t>PK-5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>0882</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Des Moines Independent</t>
+          <t>Burlington</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>0427</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ruby Van Meter School</t>
+          <t>Corse Elementary</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06 - 12</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Some students will be attending Ruby Van Meter, and some will be sent to their neighborhood schools'</t>
+          <t>PK-5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2151</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Exira-Elk Horn-Kimballton</t>
+          <t>Clay Central Everly</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>0172</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Exira/EHK Middle School</t>
+          <t>Clay Central Everly JrSr High</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PK, KG, 04 - 08</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Moving grades 6-8 into high school</t>
+          <t>7-12</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2403</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Garner-Hayfield-Ventura</t>
+          <t>Clear Lake</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>0427</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garner Hayfield Ventura Intermediate School</t>
+          <t>Sunset Elementary</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05 - 06</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Students moved to 7-8 building, staff will be moved to either high school or other GHV building</t>
+          <t>PK</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3141</t>
+          <t>2718</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Iowa City</t>
+          <t>Griswold</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>0409</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Liberty High School</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Not closed, just re-numbered</t>
+          <t>Elliott Elementary</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>PK-5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>2718</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nashua-Plainfield</t>
+          <t>Griswold</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>0436</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Nashua Plainfield Intermediate</t>
+          <t>Lewis Elementary</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>04 - 06</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>The school board voted on 4/30/18 to close our Plainfield building and to move those grades into the JH/HS and Elem. buildings located in Nashua for the 2018-2019 school year.'</t>
+          <t>PK-5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4869</t>
+          <t>2834</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Oelwein</t>
+          <t>Harmony</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>0409</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Parkside Elementary School</t>
+          <t>Harmony Elementary</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Students and Staff going to Wings Park Elem</t>
+          <t>PK-6</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6591</t>
+          <t>3141</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Valley</t>
+          <t>Iowa City</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>0409</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>North Fayette Valley Middle School</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>06 - 08</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Re-org</t>
+          <t>Herbert Hoover Elementary</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6591</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Valley</t>
+          <t>Melcher Dallas</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>0209</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Valley Elementary</t>
+          <t>Melcher Dallas Jr High School</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PK - 05</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Re-org</t>
+          <t>7-8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7056</t>
+          <t>4775</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Winterset</t>
+          <t>Northeast Hamilton</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>0412</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Winterset Bridges School</t>
+          <t>Northeast Hamilton Elementary</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09 - 12</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Alt program incorporated into high school</t>
+          <t>PK-6</t>
         </is>
       </c>
     </row>
@@ -1545,27 +1505,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0621</t>
+          <t>4787</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bettendorf</t>
+          <t>North Winneshiek</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0418</t>
+          <t>0409</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Thomas Jefferson Elementary</t>
+          <t>North Winneshiek Elementary</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PK-5</t>
+          <t>PK-6</t>
         </is>
       </c>
     </row>
@@ -1580,27 +1540,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0882</t>
+          <t>5163</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Burlington</t>
+          <t>Pekin</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0427</t>
+          <t>0209</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Corse Elementary</t>
+          <t>Pekin Jr High</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PK-5</t>
+          <t>7-8</t>
         </is>
       </c>
     </row>
@@ -1615,27 +1575,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>5463</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Clay Central Everly</t>
+          <t>Red Oak</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0172</t>
+          <t>0209</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Clay Central Everly JrSr High</t>
+          <t>Red Oak Middle School</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>7-8</t>
         </is>
       </c>
     </row>
@@ -1650,27 +1610,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>6579</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Clear Lake</t>
+          <t>Urbandale</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0427</t>
+          <t>0436</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sunset Elementary</t>
+          <t>Olmsted Elementary</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>PK-5</t>
         </is>
       </c>
     </row>
@@ -1685,47 +1645,47 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2718</t>
+          <t>6822</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Griswold</t>
+          <t>Waukee</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0409</t>
+          <t>0465</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Elliott Elementary</t>
+          <t>Vince Meyer Learning Center</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PK-5</t>
+          <t>PK</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2718</t>
+          <t>0261</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Griswold</t>
+          <t>Ankeny</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1735,32 +1695,37 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lewis Elementary</t>
+          <t>Terrace Elementary</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>PK-5</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Staff will be transferred to other elementary buildings</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Harmony</t>
+          <t>Centerville</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1770,167 +1735,197 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Harmony Elementary</t>
+          <t>Central Ward Elementary</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PK-6</t>
+          <t>K-1</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Staff will moved with students to Lakeview</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3141</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Iowa City</t>
+          <t>Clarinda</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0409</t>
+          <t>0209</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Herbert Hoover Elementary</t>
+          <t>Clarinda Middle School</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>5-8</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Staff will follow students to elem/high school</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4212</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Melcher Dallas</t>
+          <t>Durant</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0209</t>
+          <t>0418</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Melcher Dallas Jr High School</t>
+          <t>Durant Middle School</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>5-8</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Staff going with students to 0109</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4775</t>
+          <t>2457</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Northeast Hamilton</t>
+          <t>George Little Rock</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0412</t>
+          <t>0418</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Northeast Hamilton Elementary</t>
+          <t>Little Rock Elementary</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PK-6</t>
+          <t>PK, 4-5</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Staff will go with students to 0409</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4787</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>North Winneshiek</t>
+          <t>Laurens Marathon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0409</t>
+          <t>0209</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>North Winneshiek Elementary</t>
+          <t>Laurens-Marathon Middle School</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PK-6</t>
+          <t>6-8</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Expanded grade sharing to Pocahontas</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5163</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Pekin</t>
+          <t>Louisa Muscatine</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1940,32 +1935,37 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Pekin Jr High</t>
+          <t>Louisa Muscatine Jr High</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>7-8</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Staff will go with students to high school</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5463</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Red Oak</t>
+          <t>Muscatine</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1975,117 +1975,137 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Red Oak Middle School</t>
+          <t>Central Middle School</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>7-8</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Staff will go to 0215</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>6039</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sioux City</t>
+          <t>Muscatine</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0528</t>
+          <t>0218</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Irving Preschool</t>
+          <t>West Middle School</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>7-8</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Staff will go to 0215</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>6579</t>
+          <t>5922</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Urbandale</t>
+          <t>West Fork</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0436</t>
+          <t>0418</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Olmsted Elementary</t>
+          <t>West Fork Elementary Sheffield</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>PK-5</t>
+          <t>PK-1</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Moving all elem to Rockwell</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>6822</t>
+          <t>6462</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Waukee</t>
+          <t>Tri-County</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0465</t>
+          <t>0209</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vince Meyer Learning Center</t>
+          <t>Tri County Junior High School</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>7-8</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Staff going with students to 0109</t>
         </is>
       </c>
     </row>
@@ -2100,212 +2120,202 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0261</t>
+          <t>6741</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ankeny</t>
+          <t>East Sac County</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0436</t>
+          <t>0409</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Terrace Elementary</t>
+          <t>East Sac County Elementary - Wall Lake</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PK-5</t>
+          <t>PK-4</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Staff will be transferred to other elementary buildings</t>
+          <t>Retained staff will to to remaining elementary</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>0243</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Centerville</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0409</t>
+          <t>0209</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Central Ward Elementary</t>
+          <t>Andrew Middle School</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>K-1</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Staff will moved with students to Lakeview</t>
+          <t>Added grades 6-8 to WGS arrangement</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Clarinda</t>
+          <t>Cedar Rapids</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0209</t>
+          <t>0589</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Clarinda Middle School</t>
+          <t>Truman Elementary</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>5-8</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Staff will follow students to elem/high school</t>
+          <t>K-5</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Durant</t>
+          <t>Decorah</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0418</t>
+          <t>0463</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Durant Middle School</t>
+          <t>West Side Elementary</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>5-8</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Staff going with students to 0109</t>
+          <t>PK-K</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2457</t>
+          <t>1863</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>George Little Rock</t>
+          <t>Dubuque</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0418</t>
+          <t>0472</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Little Rock Elementary</t>
+          <t>Fulton Elementary</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PK, 4-5</t>
+          <t>PK-5</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Staff will go with students to 0409</t>
+          <t>Students and staff will be distributed to other elementaries</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3537</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Laurens Marathon</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2315,167 +2325,162 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Laurens-Marathon Middle School</t>
+          <t>Lisbon Middle School</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Expanded grade sharing to Pocahontas</t>
+          <t>Merged into High School</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3841</t>
+          <t>6741</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Louisa Muscatine</t>
+          <t>East Sac County</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0209</t>
+          <t>0218</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Louisa Muscatine Jr High</t>
+          <t>East Sac County Middle School</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Staff will go with students to high school</t>
+          <t>Merged into High School</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2022-2023</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4581</t>
+          <t>6795</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Muscatine</t>
+          <t>Waterloo</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0209</t>
+          <t>0445</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Central Middle School</t>
+          <t>Elk Run Early Childhood Center</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>7-8</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Staff will go to 0215</t>
+          <t>PK</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4581</t>
+          <t>0729</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Muscatine</t>
+          <t>Boone</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0218</t>
+          <t>0454</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>West Middle School</t>
+          <t>Page Elementary</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>PK-1</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Staff will go to 0215</t>
+          <t>We are combining Page and Lincoln Elementary buildings together. Page and Lincoln will be demolished and sold.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5922</t>
+          <t>0729</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>West Fork</t>
+          <t>Boone</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0418</t>
+          <t>0436</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>West Fork Elementary Sheffield</t>
+          <t>Lincoln Elementary</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2485,1815 +2490,955 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Moving all elem to Rockwell</t>
+          <t>We are combining Page and Lincoln Elementary buildings together. Page and Lincoln will be demolished and sold.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6462</t>
+          <t>0914</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tri-County</t>
+          <t>CAM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0209</t>
+          <t>0172</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tri County Junior High School</t>
+          <t>CAM Middle School</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Staff going with students to 0109</t>
+          <t>7&amp;8th grade students will be moving to the CAM High School. The 6th grade students will stay to be a part of the CAM Elementary for the 2023-2024 school year. The staff will be moving accordingly with the students.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>6741</t>
+          <t>0914</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>East Sac County</t>
+          <t>CAM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0409</t>
+          <t>0418</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>East Sac County Elementary - Wall Lake</t>
+          <t>CAM North Elementary</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PK-4</t>
+          <t>PK-5</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Retained staff will to to remaining elementary</t>
+          <t>The students and staff will be moving to the CAM South Elementary which will become the CAM Elementary for the 2023-2024 school year.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Central Lyon</t>
+          <t>Cedar Falls</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0209</t>
+          <t>0189</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Central Lyon Middle School</t>
+          <t>Cedar Falls Virtual Campus</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>K-12</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Incorporated into elementary and secondary schools</t>
+          <t>Students and Staff will be integrated back into in-person learning</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Des Moines</t>
+          <t>Council Bluffs</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0977</t>
+          <t>0425</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Orchard Place</t>
+          <t>Crescent Elementary School</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>K-12</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>District Program</t>
+          <t>The building will be closing due to enrollment of fewer than 70. Students will be attending Hoover and College View</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3348</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Kingsley Pierson</t>
+          <t>Davenport</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0418</t>
+          <t>0414</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Pierson Elementary School</t>
+          <t>Buchanan Elementary School</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>K-6</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Incorporated into Pierson Middle School</t>
+          <t>The board of education voted to close Buchanan Elementary on December 12, 2022. Students will be transferred to regional schools; staff will be assigned as needed throughout the district.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>United</t>
+          <t>Davenport</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0427</t>
+          <t>0580</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>United North</t>
+          <t>Washington Elementary School</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PK-1</t>
+          <t>PK-6</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Incorporated into United Community School</t>
+          <t>The board of education voted to close Washington Elementary on December 12, 2022. Students will be transferred to regional schools; staff will be assigned as needed throughout the district.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>6579</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Urbandale</t>
+          <t>Davenport</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0418</t>
+          <t>0535</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Jensen Elementary</t>
+          <t>Monroe Elementary</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>PK-6</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Incorporated into Olmstead Elementary</t>
+          <t>The board of education voted to close Monroe Elementary on December 12, 2022. Students will be transferred to regional schools; staff will be assigned as needed throughout the district.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>6937</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>West Burlington</t>
+          <t>MOC Floyd Valley</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0209</t>
+          <t>0418</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>West Burlington Jr High School</t>
+          <t>Hospers Elementary</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Incorporated into High School</t>
+          <t>Students and Staff move to 0409</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0243</t>
+          <t>4774</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>North Fayette Valley</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0209</t>
+          <t>0409</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Andrew Middle School</t>
+          <t>Fayette Elementary</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Added grades 6-8 to WGS arrangement</t>
+          <t>The 4th and 5th grade students attending this facility will move to Valley Elementary (4th grade) and NFV Middle School (5th grade) starting fall 2023</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>6579</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cedar Rapids</t>
+          <t>Urbandale</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0589</t>
+          <t>0427</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Truman Elementary</t>
+          <t>Karen Acres Elementary School</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>PK-5</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Karen Acres Elementary students and staff will move to Valerius Elementary. Rolling Green Elementary students and staff will move to Karen Acres Elementary and be renamed Karen Acres Elementary per board policy</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>6579</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Decorah</t>
+          <t>Urbandale</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0463</t>
+          <t>0448</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>West Side Elementary</t>
+          <t>Valerius Elementary School</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PK-K</t>
+          <t>PK-5</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Same as above</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1863</t>
+          <t>6762</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Dubuque</t>
+          <t>Wapsie Valley</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0472</t>
+          <t>0454</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Fulton Elementary</t>
+          <t>Rural Elementary School #3</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PK-5</t>
+          <t>K-8</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Students and staff will be distributed to other elementaries</t>
+          <t>Teachers and students will be distributed to other rural schools</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3744</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Cedar Rapids</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0209</t>
+          <t>418</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lisbon Middle School</t>
+          <t>Arthur Elementary School</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>7-8</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Merged into High School</t>
+          <t>K-5</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>6741</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>East Sac County</t>
+          <t>Cedar Rapids</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0218</t>
+          <t>463</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>East Sac County Middle School</t>
+          <t>Garfield Elementary School</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5-8</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Merged into High School</t>
+          <t>K-5</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>6795</t>
+          <t>2322</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Waterloo</t>
+          <t>Fort Madison</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0445</t>
+          <t>436</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Elk Run Early Childhood Center</t>
+          <t>Lincoln Elementary School</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>PK-3</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Students moving to new PK-6 building</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0729</t>
+          <t>2322</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Boone</t>
+          <t>Fort Madison</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0454</t>
+          <t>445</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Page Elementary</t>
+          <t>Richardson Elementary School</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PK-1</t>
+          <t>PK-3</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>We are combining Page and Lincoln Elementary buildings together. Page and Lincoln will be demolished and sold.</t>
+          <t>Students moving to new PK-6 building</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0729</t>
+          <t>2322</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Boone</t>
+          <t>Fort Madison</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0436</t>
+          <t>209</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lincoln Elementary</t>
+          <t>Fort Madison Middle School</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PK-1</t>
+          <t>45390</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>We are combining Page and Lincoln Elementary buildings together. Page and Lincoln will be demolished and sold.</t>
+          <t>Students moving to new PK-6 building and /or High School</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0914</t>
+          <t>3141</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CAM</t>
+          <t>Iowa City</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0172</t>
+          <t>411</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CAM Middle School</t>
+          <t>Hills Elementary School</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>PK-6</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>7&amp;8th grade students will be moving to the CAM High School. The 6th grade students will stay to be a part of the CAM Elementary for the 2023-2024 school year. The staff will be moving accordingly with the students.</t>
+          <t>Student to Alexander Elem; Staff members re-assigned</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0914</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>CAM</t>
+          <t>Mount Pleasant</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0418</t>
+          <t>409</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CAM North Elementary</t>
+          <t>Harlan Elementary</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PK-5</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>The students and staff will be moving to the CAM South Elementary which will become the CAM Elementary for the 2023-2024 school year.</t>
+          <t>Due to significant grade span change</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cedar Falls</t>
+          <t>Newton</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0189</t>
+          <t>408</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Cedar Falls Virtual Campus</t>
+          <t>Aurora Heights Elementary School</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>K-12</t>
+          <t>K-4</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Students and Staff will be integrated back into in-person learning</t>
+          <t>Students and staff going to other elementaries - district going from 4 to 2 elementaries over next couple of years</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>6094</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Council Bluffs</t>
+          <t>Southeast Warren</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0425</t>
+          <t>409</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Crescent Elementary School</t>
+          <t>Southeast Warren Intermediate</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>45388</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>The building will be closing due to enrollment of fewer than 70. Students will be attending Hoover and College View</t>
+          <t>Students and staff to other buildings per grade</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>6097</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>South Page</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0414</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Buchanan Elementary School</t>
+          <t>South Page Senior High School</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>K-6</t>
+          <t>45547</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>The board of education voted to close Buchanan Elementary on December 12, 2022. Students will be transferred to regional schools; staff will be assigned as needed throughout the district.</t>
+          <t>Tuitioning 7-12 to Clarinda</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>6840</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>Waverly Shell Rock</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0580</t>
+          <t>427</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Washington Elementary School</t>
+          <t>Margaretta Carey Elementary</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PK-6</t>
+          <t>K-4</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>The board of education voted to close Washington Elementary on December 12, 2022. Students will be transferred to regional schools; staff will be assigned as needed throughout the district.</t>
+          <t>Students and staff to new elementary bldgs</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024-2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>6840</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>Waverly Shell Rock</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0535</t>
+          <t>454</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Monroe Elementary</t>
+          <t>West Cedar Elementary</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PK-6</t>
+          <t>K-4</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
-        <is>
-          <t>The board of education voted to close Monroe Elementary on December 12, 2022. Students will be transferred to regional schools; staff will be assigned as needed throughout the district.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84">
-        <v>2025</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2457</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>George Little Rock</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0427</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>George Preschool</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>PK</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85">
-        <v>2025</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>3897</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>LuVerne</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0409</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>LuVerne Elementary School</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>PK, 1-5</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Re-org (with Algona)</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86">
-        <v>2025</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>4149</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>MOC Floyd Valley</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0418</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Hospers Elementary</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>K-5</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Students and Staff move to 0409</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87">
-        <v>2025</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>4774</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>North Fayette Valley</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>0409</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Fayette Elementary</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>4-5</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>The 4th and 5th grade students attending this facility will move to Valley Elementary (4th grade) and NFV Middle School (5th grade) starting fall 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88">
-        <v>2025</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>5325</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Prairie Valley</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0109</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Southeast Valley High School</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>9-12</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Re-org (With SE Webster Grand)</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89">
-        <v>2025</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>5325</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Prairie Valley</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>0409</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Prairie Valley Elementary School</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>PK-4</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Re-org (With Prairie Valley) Webster County</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90">
-        <v>2025</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>6579</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Urbandale</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0427</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Karen Acres Elementary School</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>PK-5</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Karen Acres Elementary students and staff will move to Valerius Elementary. Rolling Green Elementary students and staff will move to Karen Acres Elementary and be renamed Karen Acres Elementary per board policy</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91">
-        <v>2025</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>6579</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Urbandale</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0448</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Valerius Elementary School</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>PK-5</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Same as above</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92">
-        <v>2025</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>6762</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Wapsie Valley</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0454</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Rural Elementary School #3</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>K-8</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Teachers and students will be distributed to other rural schools</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93">
-        <v>2026</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>1053</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Cedar Rapids</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>418</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Arthur Elementary School</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>K-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94">
-        <v>2026</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>1053</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Cedar Rapids</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>463</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Garfield Elementary School</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>K-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95">
-        <v>2026</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>2322</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Fort Madison</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Lincoln Elementary School</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>PK-3</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Students moving to new PK-6 building</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96">
-        <v>2026</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>2322</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Fort Madison</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>445</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Richardson Elementary School</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>PK-3</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Students moving to new PK-6 building</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97">
-        <v>2026</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>2322</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Fort Madison</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Fort Madison Middle School</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>45390</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Students moving to new PK-6 building and /or High School</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98">
-        <v>2026</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>3119</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Interstate 35</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Interstate 35 Middle School</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>45420</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Reorganizing with 1 HS principal and 1 Elementary principal</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99">
-        <v>2026</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>3141</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Iowa City</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>411</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Hills Elementary School</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>PK-6</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Student to Alexander Elem; Staff members re-assigned</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100">
-        <v>2026</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>4536</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Mount Pleasant</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>409</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Harlan Elementary</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>K-5</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Due to significant grade span change</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101">
-        <v>2026</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Newton</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>408</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Aurora Heights Elementary School</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>K-4</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Students and staff going to other elementaries - district going from 4 to 2 elementaries over next couple of years</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102">
-        <v>2026</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>6094</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Southeast Warren</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>409</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Southeast Warren Intermediate</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>45388</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Students and staff to other buildings per grade</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103">
-        <v>2026</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>6097</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>South Page</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>South Page Senior High School</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>45547</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Tuitioning 7-12 to Clarinda</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104">
-        <v>2026</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>6840</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Waverly Shell Rock</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>427</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Margaretta Carey Elementary</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>K-4</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Students and staff to new elementary bldgs</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105">
-        <v>2026</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2024-2025</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>6840</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Waverly Shell Rock</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>West Cedar Elementary</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>K-4</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
         <is>
           <t>Students and staff to new elementary bldgs</t>
         </is>
